--- a/examples/data/example_product.xlsx
+++ b/examples/data/example_product.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6765" windowHeight="8280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6765" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="139">
   <si>
     <t>Dataset Metadata</t>
   </si>
@@ -409,6 +409,39 @@
   </si>
   <si>
     <t>DateTime</t>
+  </si>
+  <si>
+    <t>Synthetic Data Generator Name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>postalcode</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>ssn</t>
+  </si>
+  <si>
+    <t>building_number</t>
+  </si>
+  <si>
+    <t>street_name</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>phone_number</t>
   </si>
 </sst>
 </file>
@@ -619,15 +652,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -637,9 +667,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,6 +678,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,16 +702,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,362 +1022,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1360,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,131 +1407,134 @@
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="12" width="32.7109375" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" customWidth="1"/>
+    <col min="5" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>100</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="M5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="1"/>
-      <c r="L6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+      <c r="M6" t="s">
         <v>26</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:14" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="26"/>
+      <c r="M7" s="24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -1511,26 +1550,26 @@
       <c r="E8" t="s">
         <v>74</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>75</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>76</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>77</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>81</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>85</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1546,26 +1585,26 @@
       <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>75</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>76</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>79</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>82</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>86</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -1581,23 +1620,23 @@
       <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>75</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>76</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>78</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>83</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -1613,23 +1652,23 @@
       <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>80</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -1645,23 +1684,23 @@
       <c r="E12" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>76</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>80</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -1678,25 +1717,28 @@
         <v>91</v>
       </c>
       <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
         <v>89</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>92</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>93</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>94</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -1713,25 +1755,28 @@
         <v>91</v>
       </c>
       <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
         <v>89</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>92</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>93</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>95</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -1748,22 +1793,25 @@
         <v>91</v>
       </c>
       <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
         <v>89</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>92</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>93</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -1780,22 +1828,25 @@
         <v>91</v>
       </c>
       <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
         <v>89</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>92</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>93</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -1812,22 +1863,25 @@
         <v>91</v>
       </c>
       <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
         <v>89</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>92</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>93</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -1837,8 +1891,11 @@
       <c r="C18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -1848,8 +1905,11 @@
       <c r="C19">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>120</v>
       </c>
@@ -1859,8 +1919,11 @@
       <c r="C20">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -1870,8 +1933,11 @@
       <c r="C21">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -1881,8 +1947,11 @@
       <c r="C22">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -1892,8 +1961,11 @@
       <c r="C23">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -1903,8 +1975,11 @@
       <c r="C24">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -1914,8 +1989,11 @@
       <c r="C25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -1924,6 +2002,9 @@
       </c>
       <c r="C26">
         <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
